--- a/01_Requirements/LedgerTypes/06_Fixed Assets Company.xlsx
+++ b/01_Requirements/LedgerTypes/06_Fixed Assets Company.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t xml:space="preserve">This screen is same for Company </t>
   </si>
@@ -80,6 +80,15 @@
   </si>
   <si>
     <t>This information is to assess the accurate Gross profit calculation by considering on the Operating Fixed Assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is TCS is applicable </t>
+  </si>
+  <si>
+    <t>Applicable section of TCS</t>
+  </si>
+  <si>
+    <t>Drop Down list of TDS Rates</t>
   </si>
 </sst>
 </file>
@@ -148,7 +157,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -288,11 +297,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -309,15 +333,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -400,6 +424,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -716,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:K26"/>
+  <dimension ref="D2:K28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1"/>
@@ -833,8 +866,8 @@
     </row>
     <row r="14" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
       <c r="D14" s="3"/>
-      <c r="E14" s="6"/>
-      <c r="G14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="G14" s="6"/>
       <c r="I14" s="24"/>
       <c r="J14" s="25"/>
       <c r="K14" s="26"/>
@@ -858,85 +891,122 @@
       <c r="K16" s="26"/>
     </row>
     <row r="17" spans="4:11" ht="24.95" customHeight="1">
-      <c r="D17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="37"/>
       <c r="I17" s="24"/>
       <c r="J17" s="25"/>
       <c r="K17" s="26"/>
     </row>
-    <row r="18" spans="4:11" ht="24.95" customHeight="1">
+    <row r="18" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
       <c r="D18" s="3"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
       <c r="I18" s="24"/>
       <c r="J18" s="25"/>
       <c r="K18" s="26"/>
     </row>
     <row r="19" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="33"/>
       <c r="I19" s="24"/>
       <c r="J19" s="25"/>
       <c r="K19" s="26"/>
     </row>
-    <row r="20" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D20" s="8" t="s">
+    <row r="20" spans="4:11" ht="24.95" customHeight="1">
+      <c r="D20" s="3"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="26"/>
+    </row>
+    <row r="21" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D21" s="3"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="26"/>
+    </row>
+    <row r="22" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D22" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="29"/>
-    </row>
-    <row r="21" spans="4:11" ht="24.95" customHeight="1" thickBot="1"/>
-    <row r="22" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="10"/>
+      <c r="E22" s="9"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="29"/>
     </row>
     <row r="23" spans="4:11" ht="24.95" customHeight="1" thickBot="1"/>
     <row r="24" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D24" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="14"/>
+      <c r="D24" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="11"/>
     </row>
     <row r="25" spans="4:11" ht="24.95" customHeight="1" thickBot="1"/>
     <row r="26" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="14"/>
+    </row>
+    <row r="27" spans="4:11" ht="24.95" customHeight="1" thickBot="1"/>
+    <row r="28" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D28" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="17"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="D22:K22"/>
+  <mergeCells count="12">
+    <mergeCell ref="D28:K28"/>
     <mergeCell ref="D24:K24"/>
     <mergeCell ref="D26:K26"/>
     <mergeCell ref="D4:K4"/>
-    <mergeCell ref="I5:K20"/>
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="I5:K22"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E22:H22"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.31496062992125984" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
